--- a/data/Current_Comparison_SVM_RF/best_rf_predictions.xlsx
+++ b/data/Current_Comparison_SVM_RF/best_rf_predictions.xlsx
@@ -481,13 +481,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All_GENES</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>best_genes</t>
         </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -498,19 +496,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8769230769230763</v>
+        <v>0.8846153846153841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9548980933596315</v>
+        <v>0.9552925706771858</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ENSG00000269893, ENSG00000204387, ENSG00000203875</t>
+          <t>ENSG00000203875, ENSG00000269893, ENSG00000204387</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SNHG8, C6orf48, SNHG5</t>
+          <t>SNHG5, SNHG8, C6orf48</t>
         </is>
       </c>
     </row>
@@ -520,13 +518,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All_GENES</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>best_genes</t>
         </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -537,19 +533,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7717948717948716</v>
+        <v>0.789743589743589</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8527942143326757</v>
+        <v>0.8515450361604202</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ENSG00000150991, ENSG00000213442, ENSG00000171858</t>
+          <t>ENSG00000171858, ENSG00000213442, ENSG00000150991</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>UBC, RPL18AP3, RPS21</t>
+          <t>RPS21, RPL18AP3, UBC</t>
         </is>
       </c>
     </row>
